--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7FB42F-3D8E-4B0F-B920-5490E5F3FD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE7165-6E7A-4AB2-9003-FBA2FBE6056A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE7165-6E7A-4AB2-9003-FBA2FBE6056A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A60D07-CCDF-410E-96E8-A251DA225D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -248,17 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인이 되어있는 상태에서 카테고리가 결정되면, 해당 카테고리에 글을 작성할 수 있다.
-글 작성 페이지에서는 '국가'를 필수적으로 선택해야 한다.
-글 제목에는 " [지역] 제목 " 의 형식을 반드시 따라야 한다. 해당 규칙을 따르지 않을 경우 신고의 대상이 될 수 있다.
-제목과 내용은 공란으로 둘 수 없으며, 제목은 30글자까지 작성이 가능하다.
-'임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
-'불러 오기' 버튼을 클릭하면 임시저장 글 목록 창을 보여준다.
-글 내용에는 이미지와 유튜브 링크를 삽입할 수 있다.
-글을 성공적으로 게시한 경우, 방금 작성한 글의 상세보기 페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +270,17 @@
   </si>
   <si>
     <t>3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 되어있는 상태에서 카테고리가 결정되면, 해당 카테고리에 글을 작성할 수 있다.
+글 작성 페이지에서는 '국가'를 필수적으로 선택해야 한다.
+글 제목에는 " [지역] 제목 " 의 형식을 반드시 따라야 한다. 해당 규칙을 따르지 않을 경우 신고의 대상이 될 수 있다.
+제목과 내용은 공란으로 둘 수 없으며, 제목은 50글자까지 작성이 가능하다.
+'임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
+'불러 오기' 버튼을 클릭하면 임시저장 글 목록 창을 보여준다.
+글 내용에는 이미지와 유튜브 링크를 삽입할 수 있다.
+글을 성공적으로 게시한 경우, 방금 작성한 글의 상세보기 페이지로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,7 +848,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5">
@@ -864,15 +864,15 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5">
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="AF1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:41">

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A60D07-CCDF-410E-96E8-A251DA225D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E875C-9455-44C3-B860-C22FEC6A3836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>기획</t>
   </si>
@@ -273,14 +273,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글은 본인이 작성한 글만이 삭제가 가능하다.
+글이 삭제될 때, 업로드했던 파일들을 함께 삭제한다.
+글이 삭제될 때, 해당 글에 대한 신고들도 함께 삭제한다.
+글이 삭제될 때, 해당 글에 대한 댓글도 함께 삭제한다.
+글이 삭제될 때, 해당 글에 대한 좋아요 기록도 함께 삭제한다.
+글이 삭제될 때, 해당 글에 대한 댓글의 좋아요도 함께 삭제한다.
+글이 삭제될 때, 해당 글에 대한 북마크도 함께 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 댓글 작성자 본인만이 삭제가 가능하다.
+대댓글이 없는 경우에는 댓글을 완전히 삭제한다.
+대댓글이 달려있는 경우에는 "삭제된 댓글입니다." 라는 문구를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성에서 '임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
+임시 저장은 제목과 내용을 공란으로 둘 수 없다.
+첫 요청 시에는 임시저장글이 추가가 된다. (create)
+두 번 이상 '임시 저장' 버튼을 누를 경우, 임시저장글이 추가되는 것이 아니라 업데이트로 반영한다. (update)
+'불러 오기' 버튼을 클릭하면 임시저장 글 목록을 보여준다.
+임시 저장 글 목록 중 하나를 선택하면, 해당 데이터로 값이 채워진다.
+'불러 오기'를 호출한 후, '임시 저장' 버튼을 누르면, 새로 저장하는 것이 아니라, '불러 오기' 한 글을 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인이 되어있는 상태에서 카테고리가 결정되면, 해당 카테고리에 글을 작성할 수 있다.
 글 작성 페이지에서는 '국가'를 필수적으로 선택해야 한다.
 글 제목에는 " [지역] 제목 " 의 형식을 반드시 따라야 한다. 해당 규칙을 따르지 않을 경우 신고의 대상이 될 수 있다.
 제목과 내용은 공란으로 둘 수 없으며, 제목은 50글자까지 작성이 가능하다.
-'임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
-'불러 오기' 버튼을 클릭하면 임시저장 글 목록 창을 보여준다.
 글 내용에는 이미지와 유튜브 링크를 삽입할 수 있다.
 글을 성공적으로 게시한 경우, 방금 작성한 글의 상세보기 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 임시저장/불러오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,17 +782,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="94.875" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="99.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="82.5">
@@ -843,36 +879,63 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="148.5">
+    <row r="11" spans="2:4" ht="115.5">
       <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="132">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="148.5">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="115.5">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="148.5">
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="132">
-      <c r="C13" t="s">
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="132">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="49.5">
-      <c r="C14" t="s">
+    <row r="16" spans="2:4" ht="49.5">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="49.5">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E875C-9455-44C3-B860-C22FEC6A3836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B82FB2-0F0C-4EE0-9C37-06C74B507402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>기획</t>
   </si>
@@ -159,19 +159,6 @@
 아이디는 이메일 형식을 사용한다.
 만약 아이디가 존재하거나, '비밀번호'와 '비밀번호 확인'이 일치하지 않는 경우에는 화면에 에러문구가 출력된다.
 또한, 비밀번호가 영문+숫자+특수문자를 조합한 12글자 ~ 20글자가 아닌 경우에도 화면에 에러문구가 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인에 성공한 회원은 자신의 정보를 확인할 수 있다.
-마이페이지-회원정보에는 아이디, 가입일, 최근 로그인 일자, 좋아요 수 등이 출력된다.
-회원은 '회원정보 변경' 버튼을 클릭해 자신의 비밀번호를 수정할 수 있으며, '탈퇴' 버튼을 눌러 회원을 탈퇴할 수 있다. 단, '변경'과 '삭제' 기능은 민감한 사항이므로 로그인한 유저에게 다시 한 번 패스워드를 요구한다.
-회원을 탈퇴하는 경우에는 회원이 작성한 모든 글은 삭제되고, 회원이 작성한 댓글의 작성자는 '비공개'로 설정되며, '삭제된 댓글입니다.' 라는 내용으로 대체된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신이 작성하다 만 게시물 리스트를 확인할 수 있다.
-임시저장글은 게시물 작성 폼에서 추가할 수 있으며, 최대 10개까지 저장이 가능하다.
-임시저장글을 클릭하면, 게시물 작성 페이지로 넘어가며 임시저장된 글로 채워진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,14 +179,6 @@
 '내용'은 한 줄에 30글자씩 보여지며, 내용이 길어질 경우 두 줄로 나타낸다. 글자 수가 57이 넘어가는 경우에는 두 줄 뒤에 … 으로 나타낸다.
 댓글은 최신순으로 정렬되어 보여진다.
 회원이 작성한 댓글은 한 페이지에 10개씩 보여지며, 10개가 넘어가는 경우 다음 페이지로 넘겨서 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이 작성한 글 목록을 보여준다.
-게시물은 '번호', '제목', '날짜', '조회수'를 보여주며, '제목'에는 댓글 수를 포함한다.
-하단에는 전체 글의 개수가 나타난다.
-게시물은 최신순으로 정렬되어 보여진다.
-회원이 작성한 글은 한 페이지에 10개씩 보여지며, 10개가 넘어가는 경우 다음 페이지로 넘겨서 확인할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,16 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 작성에서 '임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
-임시 저장은 제목과 내용을 공란으로 둘 수 없다.
-첫 요청 시에는 임시저장글이 추가가 된다. (create)
-두 번 이상 '임시 저장' 버튼을 누를 경우, 임시저장글이 추가되는 것이 아니라 업데이트로 반영한다. (update)
-'불러 오기' 버튼을 클릭하면 임시저장 글 목록을 보여준다.
-임시 저장 글 목록 중 하나를 선택하면, 해당 데이터로 값이 채워진다.
-'불러 오기'를 호출한 후, '임시 저장' 버튼을 누르면, 새로 저장하는 것이 아니라, '불러 오기' 한 글을 업데이트한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인이 되어있는 상태에서 카테고리가 결정되면, 해당 카테고리에 글을 작성할 수 있다.
 글 작성 페이지에서는 '국가'를 필수적으로 선택해야 한다.
 글 제목에는 " [지역] 제목 " 의 형식을 반드시 따라야 한다. 해당 규칙을 따르지 않을 경우 신고의 대상이 될 수 있다.
@@ -317,6 +286,144 @@
   </si>
   <si>
     <t>글 임시저장/불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성에서 '임시 저장' 버튼을 클릭하면 현재 작성 중인 글을 임시저장글 목록에 추가한다.
+임시 저장은 제목과 내용을 공란으로 둘 수 없다.
+첫 요청 시에는 임시저장글이 추가가 된다. (create)
+두 번 이상 '임시 저장' 버튼을 누를 경우, 임시저장글이 추가되는 것이 아니라 업데이트로 반영한다. (update)
+현재 작성중인 임시 저장글을 삭제하고, '임시저장' 버튼을 누를 경우 임시저장글이 새로 추가된다. (create)
+임시저장은 최대 10개까지 저장이 가능하다.
+'불러 오기' 버튼을 클릭하면 임시저장 글 목록을 보여준다.
+임시 저장 글 목록 중 하나를 선택하면, 해당 데이터로 값이 채워진다.
+'불러 오기'를 호출한 후, '임시 저장' 버튼을 누르면, 새로 저장하는 것이 아니라, '불러 오기' 한 글을 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+O
+O
+O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+X
+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X
+X
+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 임시저장글 목록을 확인할 수 있다.
+임시저장글은 게시물 작성 폼에서 추가할 수 있으며, 최대 10개까지 저장이 가능하다.
+임시저장글을 클릭하면, 게시물 작성 페이지로 넘어가며 임시저장된 글로 채워진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 작성한 글 목록을 보여준다.
+게시물은 '번호', '제목', '날짜', '조회수'를 보여주며, '제목'에는 댓글 수를 포함한다.
+게시물을 클릭하면 게시물 상세보기 페이지로 이동한다. 
+하단에는 전체 글의 개수가 나타난다.
+게시물은 최신순으로 정렬되어 보여진다.
+회원이 작성한 글은 한 페이지에 10개씩 보여지며, 10개가 넘어가는 경우 다음 페이지로 넘겨서 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+O
+O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인에 성공한 회원은 자신의 정보를 확인할 수 있다.
+마이페이지-회원정보에는 아이디, 가입일, 최근 로그인 일자, 좋아요 수 등이 출력된다.
+회원은 '회원정보 변경' 버튼을 클릭해 자신의 비밀번호를 수정할 수 있으며, '탈퇴' 버튼을 눌러 회원을 탈퇴할 수 있다.
+단, '변경'과 '삭제' 기능은 민감한 사항이므로 로그인한 유저에게 다시 한 번 패스워드를 요구한다.
+회원을 탈퇴하는 경우에는 회원이 작성한 모든 글은 삭제되고, 회원이 작성한 댓글의 작성자는 '비공개'로 설정되며, '삭제된 댓글입니다.' 라는 내용으로 대체된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+X
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+X
+X
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 할 때, 글 불러오기 기능이 같이 동작하는 문제가 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+X
+X
+O
+O
+X
+O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +565,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,20 +895,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="99.25" customWidth="1"/>
+    <col min="4" max="4" width="127.75" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="82.5">
+    <row r="2" spans="2:6" ht="66">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -805,27 +919,36 @@
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="33">
+      <c r="E2" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="33">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="49.5">
+      <c r="E3" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="49.5">
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="99">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="99">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -833,42 +956,57 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="49.5">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="99">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="49.5">
-      <c r="C6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="82.5">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="82.5">
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="115.5">
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="82.5">
+      <c r="E8" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="82.5">
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="82.5">
+        <v>37</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="82.5">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -876,42 +1014,60 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="99">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="148.5">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="132">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="115.5">
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="132">
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="148.5">
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="115.5">
+      <c r="E13" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="115.5">
       <c r="C14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="132">
+        <v>49</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="132">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -919,23 +1075,23 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="49.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="49.5">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="49.5">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="AF1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -1215,7 +1371,7 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -1226,7 +1382,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1393,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1404,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -1258,7 +1414,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1435,7 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>28</v>
       </c>

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B82FB2-0F0C-4EE0-9C37-06C74B507402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038BA743-4483-4337-A529-0C9625E96188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -314,13 +314,6 @@
   </si>
   <si>
     <t>O
-O
-O
-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O
 O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +416,13 @@
 O
 O
 X
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
 O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +567,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -919,8 +919,8 @@
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>56</v>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="33">
@@ -930,8 +930,8 @@
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>57</v>
+      <c r="E3" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="49.5">
@@ -944,8 +944,8 @@
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>59</v>
+      <c r="E4" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="99">
@@ -956,10 +956,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="49.5">
@@ -967,10 +967,10 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="99">
@@ -978,10 +978,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="82.5">
@@ -991,8 +991,8 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>66</v>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="82.5">
@@ -1002,8 +1002,8 @@
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>67</v>
+      <c r="E9" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="82.5">
@@ -1016,8 +1016,8 @@
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>68</v>
+      <c r="E10" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="99">
@@ -1027,8 +1027,8 @@
       <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>64</v>
+      <c r="E11" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="148.5">
@@ -1038,11 +1038,11 @@
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="132">
@@ -1052,8 +1052,8 @@
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>63</v>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="115.5">
@@ -1063,8 +1063,8 @@
       <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>70</v>
+      <c r="E14" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="132">
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -1382,7 +1382,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -1414,7 +1414,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>28</v>
       </c>

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038BA743-4483-4337-A529-0C9625E96188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4BC3D-BCF0-4064-8B4A-11C73332325A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>기획</t>
   </si>
@@ -267,12 +267,6 @@
   </si>
   <si>
     <t>댓글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글은 댓글 작성자 본인만이 삭제가 가능하다.
-대댓글이 없는 경우에는 댓글을 완전히 삭제한다.
-대댓글이 달려있는 경우에는 "삭제된 댓글입니다." 라는 문구를 표시한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,12 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X
-X
-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 임시저장글 목록을 확인할 수 있다.
 임시저장글은 게시물 작성 폼에서 추가할 수 있으며, 최대 10개까지 저장이 가능하다.
 임시저장글을 클릭하면, 게시물 작성 페이지로 넘어가며 임시저장된 글로 채워진다.</t>
@@ -406,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 할 때, 글 불러오기 기능이 같이 동작하는 문제가 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O
 X
 X
@@ -424,6 +408,19 @@
 O
 O
 O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 댓글 작성자 본인만이 삭제가 가능하다.
+대댓글이 없는 경우에는 댓글을 완전히 삭제한다.
+대댓글이 달려있는 경우에는 "삭제된 댓글입니다." 라는 문구를 표시한다.
+'댓글'이 "삭제된 댓글입니다." 라는 문구로 표시되고 있을 때, 대댓글이 모두 삭제되는 경우, "삭제된 댓글" 또한 데이터베이스에서 삭제한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -909,7 +906,7 @@
     <col min="5" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="66">
+    <row r="2" spans="2:5" ht="66">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -920,10 +917,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="33">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -931,10 +928,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="49.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="49.5">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -945,10 +942,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="99">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="99">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -956,35 +953,35 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="49.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="49.5">
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="99">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="99">
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="82.5">
+    </row>
+    <row r="8" spans="2:5" ht="82.5">
       <c r="C8" t="s">
         <v>35</v>
       </c>
@@ -992,10 +989,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="82.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="82.5">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -1003,10 +1000,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="82.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="82.5">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1017,35 +1014,32 @@
         <v>40</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="99">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="99">
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="148.5">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="148.5">
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="132">
+    </row>
+    <row r="13" spans="2:5" ht="132">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -1053,10 +1047,10 @@
         <v>43</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="115.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="115.5">
       <c r="C14" t="s">
         <v>48</v>
       </c>
@@ -1064,10 +1058,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="132">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="132">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1077,21 +1071,30 @@
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="49.5">
+      <c r="E15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="49.5">
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" ht="49.5">
+      <c r="E16" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="66">
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/마일스톤(+요구사항 정리).xlsx
+++ b/마일스톤(+요구사항 정리).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_dev\workspace\sts-spring-boot-project\travel-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4BC3D-BCF0-4064-8B4A-11C73332325A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864F7DC-6C77-4E88-BD73-31D669B46035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B81DD56-FC69-45C8-B634-E647C1A56CEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>기획</t>
   </si>
@@ -312,15 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O
-O
-O
-O
-X
-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 임시저장글 목록을 확인할 수 있다.
 임시저장글은 게시물 작성 폼에서 추가할 수 있으며, 최대 10개까지 저장이 가능하다.
 임시저장글을 클릭하면, 게시물 작성 페이지로 넘어가며 임시저장된 글로 채워진다.</t>
@@ -372,34 +363,8 @@
   <si>
     <t>O
 O
-X
-O
-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O
-O
-O
-O
-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O
-X
-X
-O
-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O
-X
-X
-O
-O
-X
+O
+O
 O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +386,29 @@
 대댓글이 없는 경우에는 댓글을 완전히 삭제한다.
 대댓글이 달려있는 경우에는 "삭제된 댓글입니다." 라는 문구를 표시한다.
 '댓글'이 "삭제된 댓글입니다." 라는 문구로 표시되고 있을 때, 대댓글이 모두 삭제되는 경우, "삭제된 댓글" 또한 데이터베이스에서 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O</t>
+  </si>
+  <si>
+    <t>O
+X
+X
+O
+O
+O
+O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+O
+O
+O
+X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,15 +882,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F38A16-A508-42C0-AA5F-9D76A1E596E9}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="127.75" customWidth="1"/>
+    <col min="4" max="4" width="137.875" customWidth="1"/>
     <col min="5" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -917,7 +905,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="33">
@@ -942,10 +930,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="99">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="82.5">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -953,10 +941,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="49.5">
@@ -964,10 +952,10 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="99">
@@ -975,10 +963,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="82.5">
@@ -989,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="82.5">
@@ -1000,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="82.5">
@@ -1014,7 +1002,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="99">
@@ -1025,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="148.5">
@@ -1047,7 +1035,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="115.5">
@@ -1058,7 +1046,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="132">
@@ -1072,7 +1060,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5">
@@ -1083,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="66">
@@ -1091,10 +1079,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
